--- a/data/trans_orig/P36BPD14_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{931CBD83-940B-4A20-A21F-92C1CEB105F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7216CE5-1D9D-4A4C-9A94-0BC926E683E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E4DABD9-417E-4C61-BBC7-E9FD3FEFBD17}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49609C83-2B94-49AE-9FBE-30B7A7A93FEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,44%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Una por semana</t>
@@ -104,28 +104,28 @@
     <t>35,04%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
   </si>
   <si>
     <t>37,35%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,283 +134,277 @@
     <t>53,53%</t>
   </si>
   <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>43,59%</t>
   </si>
   <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
     <t>36,88%</t>
   </si>
   <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
     <t>51,31%</t>
   </si>
   <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
     <t>51,54%</t>
   </si>
   <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
+    <t>69,18%</t>
   </si>
   <si>
     <t>49,53%</t>
   </si>
   <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -419,127 +413,127 @@
     <t>8,46%</t>
   </si>
   <si>
-    <t>10,66%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>38,72%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
   </si>
   <si>
     <t>39,31%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
   </si>
   <si>
     <t>51,99%</t>
   </si>
   <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
   </si>
   <si>
     <t>8,63%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
   </si>
   <si>
     <t>42,38%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>43,09%</t>
   </si>
   <si>
-    <t>40,5%</t>
+    <t>40,57%</t>
   </si>
   <si>
     <t>44,55%</t>
@@ -548,28 +542,25 @@
     <t>47,48%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
+    <t>53,63%</t>
   </si>
   <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13ED02D4-7351-46A1-869E-BB6A2C2D112B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D25C0A3-85E7-4AC0-9663-B84C2BB8F53D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1652,13 +1643,13 @@
         <v>908953</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,7 +1705,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1726,13 +1717,13 @@
         <v>74984</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>144</v>
@@ -1741,13 +1732,13 @@
         <v>104999</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>215</v>
@@ -1756,13 +1747,13 @@
         <v>179983</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1777,13 +1768,13 @@
         <v>309774</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>414</v>
@@ -1792,13 +1783,13 @@
         <v>316315</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>691</v>
@@ -1807,13 +1798,13 @@
         <v>626088</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,13 +1819,13 @@
         <v>343071</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>486</v>
@@ -1843,13 +1834,13 @@
         <v>448138</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>813</v>
@@ -1858,13 +1849,13 @@
         <v>791209</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,7 +1911,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1932,13 +1923,13 @@
         <v>81406</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -1947,13 +1938,13 @@
         <v>102450</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>225</v>
@@ -1962,13 +1953,13 @@
         <v>183856</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,13 +1974,13 @@
         <v>384970</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>588</v>
@@ -1998,13 +1989,13 @@
         <v>445502</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>1003</v>
@@ -2013,13 +2004,13 @@
         <v>830472</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,13 +2025,13 @@
         <v>495971</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>828</v>
@@ -2049,13 +2040,13 @@
         <v>602480</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>1336</v>
@@ -2064,13 +2055,13 @@
         <v>1098450</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,13 +2129,13 @@
         <v>291007</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>530</v>
@@ -2153,13 +2144,13 @@
         <v>361728</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>809</v>
@@ -2168,13 +2159,13 @@
         <v>652735</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,13 +2180,13 @@
         <v>1480272</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>2227</v>
@@ -2204,13 +2195,13 @@
         <v>1607879</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>3698</v>
@@ -2219,13 +2210,13 @@
         <v>3088151</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,13 +2231,13 @@
         <v>1600992</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>2593</v>
@@ -2255,13 +2246,13 @@
         <v>1824372</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>4203</v>
@@ -2270,13 +2261,13 @@
         <v>3425364</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,7 +2323,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD14_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7216CE5-1D9D-4A4C-9A94-0BC926E683E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB84FEE-86E2-418C-B422-D22A5E6F7DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49609C83-2B94-49AE-9FBE-30B7A7A93FEE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E3E65F7F-05A0-4D56-969C-74DCE6333666}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -65,502 +65,424 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>Una por semana</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
   </si>
   <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -975,8 +897,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D25C0A3-85E7-4AC0-9663-B84C2BB8F53D}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BF19AE-7288-498C-927D-2B2A51931FA0}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1093,10 +1015,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D4" s="7">
-        <v>11378</v>
+        <v>50777</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1108,10 +1030,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="I4" s="7">
-        <v>22247</v>
+        <v>66279</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1123,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="N4" s="7">
-        <v>33625</v>
+        <v>117056</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1144,10 +1066,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>326</v>
       </c>
       <c r="D5" s="7">
-        <v>34855</v>
+        <v>286701</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1159,10 +1081,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>83</v>
+        <v>516</v>
       </c>
       <c r="I5" s="7">
-        <v>50428</v>
+        <v>288868</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1174,10 +1096,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>122</v>
+        <v>842</v>
       </c>
       <c r="N5" s="7">
-        <v>85283</v>
+        <v>575569</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1195,10 +1117,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="D6" s="7">
-        <v>53252</v>
+        <v>293481</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1210,10 +1132,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>118</v>
+        <v>592</v>
       </c>
       <c r="I6" s="7">
-        <v>56148</v>
+        <v>317732</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1225,10 +1147,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>182</v>
+        <v>935</v>
       </c>
       <c r="N6" s="7">
-        <v>109399</v>
+        <v>611212</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1246,10 +1168,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>115</v>
+        <v>723</v>
       </c>
       <c r="D7" s="7">
-        <v>99484</v>
+        <v>630958</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1261,10 +1183,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>240</v>
+        <v>1233</v>
       </c>
       <c r="I7" s="7">
-        <v>128823</v>
+        <v>672879</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1276,10 +1198,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>355</v>
+        <v>1956</v>
       </c>
       <c r="N7" s="7">
-        <v>228307</v>
+        <v>1303837</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1299,10 +1221,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>40204</v>
+        <v>84902</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1314,10 +1236,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="I8" s="7">
-        <v>48202</v>
+        <v>77092</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1329,10 +1251,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="N8" s="7">
-        <v>88406</v>
+        <v>161994</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1350,10 +1272,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>287</v>
+        <v>453</v>
       </c>
       <c r="D9" s="7">
-        <v>268374</v>
+        <v>443729</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1365,10 +1287,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>433</v>
+        <v>709</v>
       </c>
       <c r="I9" s="7">
-        <v>265362</v>
+        <v>469187</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1380,10 +1302,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>720</v>
+        <v>1162</v>
       </c>
       <c r="N9" s="7">
-        <v>533736</v>
+        <v>912916</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1401,10 +1323,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>432</v>
       </c>
       <c r="D10" s="7">
-        <v>239051</v>
+        <v>660152</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1416,10 +1338,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>474</v>
+        <v>687</v>
       </c>
       <c r="I10" s="7">
-        <v>278301</v>
+        <v>406334</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1431,10 +1353,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>753</v>
+        <v>1119</v>
       </c>
       <c r="N10" s="7">
-        <v>517352</v>
+        <v>1066486</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1452,10 +1374,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>608</v>
+        <v>960</v>
       </c>
       <c r="D11" s="7">
-        <v>547629</v>
+        <v>1188783</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1467,10 +1389,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>993</v>
+        <v>1511</v>
       </c>
       <c r="I11" s="7">
-        <v>591865</v>
+        <v>952613</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1482,10 +1404,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1601</v>
+        <v>2471</v>
       </c>
       <c r="N11" s="7">
-        <v>1139494</v>
+        <v>2141396</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1505,49 +1427,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>71</v>
+      </c>
+      <c r="D12" s="7">
+        <v>73724</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="7">
+        <v>144</v>
+      </c>
+      <c r="I12" s="7">
+        <v>97084</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="7">
+        <v>215</v>
+      </c>
+      <c r="N12" s="7">
+        <v>170808</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="7">
-        <v>83034</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="7">
-        <v>115</v>
-      </c>
-      <c r="I12" s="7">
-        <v>83831</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="7">
-        <v>190</v>
-      </c>
-      <c r="N12" s="7">
-        <v>166866</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1556,49 +1478,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>453</v>
+        <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>482300</v>
+        <v>292861</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>414</v>
+      </c>
+      <c r="I13" s="7">
+        <v>309158</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="7">
-        <v>709</v>
-      </c>
-      <c r="I13" s="7">
-        <v>530271</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>691</v>
+      </c>
+      <c r="N13" s="7">
+        <v>602019</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="7">
-        <v>1162</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1012572</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1607,49 +1529,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="D14" s="7">
-        <v>469647</v>
+        <v>337212</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>486</v>
+      </c>
+      <c r="I14" s="7">
+        <v>522209</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>687</v>
-      </c>
-      <c r="I14" s="7">
-        <v>439306</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>813</v>
+      </c>
+      <c r="N14" s="7">
+        <v>859420</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>1119</v>
-      </c>
-      <c r="N14" s="7">
-        <v>908953</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,10 +1580,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>960</v>
+        <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>1034982</v>
+        <v>703797</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1673,10 +1595,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1511</v>
+        <v>1044</v>
       </c>
       <c r="I15" s="7">
-        <v>1053408</v>
+        <v>928451</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1688,10 +1610,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2471</v>
+        <v>1719</v>
       </c>
       <c r="N15" s="7">
-        <v>2088390</v>
+        <v>1632247</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1705,55 +1627,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
-        <v>74984</v>
+        <v>80756</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>146</v>
+      </c>
+      <c r="I16" s="7">
+        <v>94310</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="7">
-        <v>144</v>
-      </c>
-      <c r="I16" s="7">
-        <v>104999</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>225</v>
+      </c>
+      <c r="N16" s="7">
+        <v>175066</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M16" s="7">
-        <v>215</v>
-      </c>
-      <c r="N16" s="7">
-        <v>179983</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,49 +1684,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="D17" s="7">
-        <v>309774</v>
+        <v>352782</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>588</v>
+      </c>
+      <c r="I17" s="7">
+        <v>387619</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7">
-        <v>414</v>
-      </c>
-      <c r="I17" s="7">
-        <v>316315</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1003</v>
+      </c>
+      <c r="N17" s="7">
+        <v>740401</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M17" s="7">
-        <v>691</v>
-      </c>
-      <c r="N17" s="7">
-        <v>626088</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,49 +1735,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>327</v>
+        <v>508</v>
       </c>
       <c r="D18" s="7">
-        <v>343071</v>
+        <v>490387</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>828</v>
+      </c>
+      <c r="I18" s="7">
+        <v>613003</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="7">
-        <v>486</v>
-      </c>
-      <c r="I18" s="7">
-        <v>448138</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1103389</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M18" s="7">
-        <v>813</v>
-      </c>
-      <c r="N18" s="7">
-        <v>791209</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>675</v>
+        <v>1002</v>
       </c>
       <c r="D19" s="7">
-        <v>727829</v>
+        <v>923925</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1879,10 +1801,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1044</v>
+        <v>1562</v>
       </c>
       <c r="I19" s="7">
-        <v>869452</v>
+        <v>1094932</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1894,10 +1816,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1719</v>
+        <v>2564</v>
       </c>
       <c r="N19" s="7">
-        <v>1597280</v>
+        <v>2018857</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1911,55 +1833,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="D20" s="7">
-        <v>81406</v>
+        <v>290159</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>530</v>
+      </c>
+      <c r="I20" s="7">
+        <v>334765</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7">
-        <v>146</v>
-      </c>
-      <c r="I20" s="7">
-        <v>102450</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>809</v>
+      </c>
+      <c r="N20" s="7">
+        <v>624924</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="7">
-        <v>225</v>
-      </c>
-      <c r="N20" s="7">
-        <v>183856</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,49 +1890,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>415</v>
+        <v>1471</v>
       </c>
       <c r="D21" s="7">
-        <v>384970</v>
+        <v>1376073</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>2227</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1454832</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="7">
-        <v>588</v>
-      </c>
-      <c r="I21" s="7">
-        <v>445502</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>3698</v>
+      </c>
+      <c r="N21" s="7">
+        <v>2830905</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M21" s="7">
-        <v>1003</v>
-      </c>
-      <c r="N21" s="7">
-        <v>830472</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,25 +1941,25 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>508</v>
+        <v>1610</v>
       </c>
       <c r="D22" s="7">
-        <v>495971</v>
+        <v>1781231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H22" s="7">
-        <v>828</v>
+        <v>2593</v>
       </c>
       <c r="I22" s="7">
-        <v>602480</v>
+        <v>1859278</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>143</v>
@@ -2049,10 +1971,10 @@
         <v>145</v>
       </c>
       <c r="M22" s="7">
-        <v>1336</v>
+        <v>4203</v>
       </c>
       <c r="N22" s="7">
-        <v>1098450</v>
+        <v>3640508</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>146</v>
@@ -2070,10 +1992,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1002</v>
+        <v>3360</v>
       </c>
       <c r="D23" s="7">
-        <v>962347</v>
+        <v>3447463</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2085,10 +2007,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1562</v>
+        <v>5350</v>
       </c>
       <c r="I23" s="7">
-        <v>1150432</v>
+        <v>3648875</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2100,10 +2022,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2564</v>
+        <v>8710</v>
       </c>
       <c r="N23" s="7">
-        <v>2112778</v>
+        <v>7096338</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2116,222 +2038,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>279</v>
-      </c>
-      <c r="D24" s="7">
-        <v>291007</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="A24" t="s">
         <v>149</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="7">
-        <v>530</v>
-      </c>
-      <c r="I24" s="7">
-        <v>361728</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M24" s="7">
-        <v>809</v>
-      </c>
-      <c r="N24" s="7">
-        <v>652735</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1471</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1480272</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2227</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1607879</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="7">
-        <v>3698</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3088151</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1600992</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2593</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1824372</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M26" s="7">
-        <v>4203</v>
-      </c>
-      <c r="N26" s="7">
-        <v>3425364</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3360</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3372271</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5350</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3793980</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8710</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7166250</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>175</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
